--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="9540" activeTab="3"/>
+    <workbookView windowWidth="24800" windowHeight="10120" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="TestSheet" sheetId="6" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>john11</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -165,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -220,6 +223,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -236,29 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -267,9 +270,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,80 +359,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -372,13 +375,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,163 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,54 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,20 +580,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,145 +631,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7678571428571" defaultRowHeight="23.2" outlineLevelRow="2"/>
@@ -1198,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.2321428571429" defaultRowHeight="23.2" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1387,17 +1390,43 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7589285714286" defaultRowHeight="23.2"/>
+  <sheetFormatPr defaultColWidth="22.7589285714286" defaultRowHeight="23.2" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="22.7589285714286" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
